--- a/processed_data/house_dems_all.xlsx
+++ b/processed_data/house_dems_all.xlsx
@@ -3674,17 +3674,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>G000587</t>
+          <t>G000586</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sylvia</t>
+          <t>JesÃºs</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>GarcÃ­a</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3694,39 +3694,39 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>H8TX29052</t>
+          <t>H8IL04134</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>G000586</t>
+          <t>G000587</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JesÃºs</t>
+          <t>Sylvia</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>GarcÃ­a</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3736,22 +3736,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>H8IL04134</t>
+          <t>H8TX29052</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>L000551</t>
+          <t>L000590</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Susie</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5577,34 +5577,34 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0613</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>H8CA09060</t>
+          <t>H8NV03200</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>L000590</t>
+          <t>L000551</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Susie</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5619,22 +5619,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>0613</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>H8NV03200</t>
+          <t>H8CA09060</t>
         </is>
       </c>
     </row>
@@ -8708,17 +8708,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>S000185</t>
+          <t>S001157</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>C.</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -8733,34 +8728,39 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>5103</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>H6VA01117</t>
+          <t>H2GA13012</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>S001157</t>
+          <t>S000185</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>C.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -8775,22 +8775,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>5103</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>H2GA13012</t>
+          <t>H6VA01117</t>
         </is>
       </c>
     </row>
@@ -9474,12 +9474,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>T000193</t>
+          <t>T000460</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -9494,34 +9494,34 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>0605</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>H4MS02068</t>
+          <t>H8CA01109</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>T000460</t>
+          <t>T000193</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -9536,22 +9536,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>0605</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>H8CA01109</t>
+          <t>H4MS02068</t>
         </is>
       </c>
     </row>

--- a/processed_data/house_dems_all.xlsx
+++ b/processed_data/house_dems_all.xlsx
@@ -2505,17 +2505,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D000598</t>
+          <t>D000096</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>K.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2530,39 +2530,39 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0653</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>H0CA49055</t>
+          <t>H4IL07037</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D000096</t>
+          <t>D000598</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Danny</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>K.</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2577,22 +2577,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>0653</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>H4IL07037</t>
+          <t>H0CA49055</t>
         </is>
       </c>
     </row>
@@ -3674,17 +3674,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>G000586</t>
+          <t>G000587</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JesÃºs</t>
+          <t>Sylvia</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>GarcÃ­a</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3694,39 +3694,39 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>H8IL04134</t>
+          <t>H8TX29052</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>G000587</t>
+          <t>G000586</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sylvia</t>
+          <t>JesÃºs</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>GarcÃ­a</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3736,22 +3736,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>H8TX29052</t>
+          <t>H8IL04134</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>L000592</t>
+          <t>L000593</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Andy</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5661,34 +5661,34 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>0649</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>H8MI09118</t>
+          <t>H8CA49058</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>L000593</t>
+          <t>L000592</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Andy</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5703,22 +5703,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0649</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>H8CA49058</t>
+          <t>H8MI09118</t>
         </is>
       </c>
     </row>
@@ -9474,12 +9474,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>T000460</t>
+          <t>T000193</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -9494,34 +9494,34 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>0605</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>H8CA01109</t>
+          <t>H4MS02068</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>T000193</t>
+          <t>T000460</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -9536,22 +9536,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>0605</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>H4MS02068</t>
+          <t>H8CA01109</t>
         </is>
       </c>
     </row>
